--- a/Question-Answer-Bank.xlsx
+++ b/Question-Answer-Bank.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chvya\Documents\AI Physics Writing\GPT-4 Answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A4E043-AB66-4240-B3BE-7E348874C5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CAE983-B6EA-4561-A595-3335A7665320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{50AF6F86-C276-4885-9784-CFE30EF2E953}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="14496" xr2:uid="{50AF6F86-C276-4885-9784-CFE30EF2E953}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="141">
   <si>
     <t>Question</t>
   </si>
@@ -87,27 +86,9 @@
     <t>1a</t>
   </si>
   <si>
-    <t>3a</t>
-  </si>
-  <si>
     <t>1b</t>
   </si>
   <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>1d</t>
-  </si>
-  <si>
-    <t>1e</t>
-  </si>
-  <si>
-    <t>1f</t>
-  </si>
-  <si>
-    <t>1g</t>
-  </si>
-  <si>
     <t>MUSE</t>
   </si>
   <si>
@@ -132,18 +113,6 @@
     <t>Write out the following numbers in full with the correct number of zeros: 3.62E-5</t>
   </si>
   <si>
-    <t>3b</t>
-  </si>
-  <si>
-    <t>3c</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>3e</t>
-  </si>
-  <si>
     <t>What is the percent uncertainty in the measurement 5.48 \pm 0.25 m</t>
   </si>
   <si>
@@ -153,12 +122,6 @@
     <t>The Sun, on average, is 93 million miles from Earth. How many meters is this? Express using a metric prefix (km).</t>
   </si>
   <si>
-    <t>1.5 X 10^8 km</t>
-  </si>
-  <si>
-    <t>1.5 X 10^11 m</t>
-  </si>
-  <si>
     <t>Estimate the order of magnitude (power of 10) of: 2800</t>
   </si>
   <si>
@@ -186,27 +149,6 @@
     <t>Estimate how many hours it would take to run (at 10 km/h) across the U.S. from New York to California.</t>
   </si>
   <si>
-    <t>25a</t>
-  </si>
-  <si>
-    <t>25b</t>
-  </si>
-  <si>
-    <t>25c</t>
-  </si>
-  <si>
-    <t>25d</t>
-  </si>
-  <si>
-    <t>27e</t>
-  </si>
-  <si>
-    <t>15a</t>
-  </si>
-  <si>
-    <t>15b</t>
-  </si>
-  <si>
     <t>Response</t>
   </si>
   <si>
@@ -255,12 +197,6 @@
     <t xml:space="preserve">A particle at t1 = -2.0 s is at x1 = 4.8 cm and at t2 = 4.5 s is at x2 = 8.5 cm. What is its average velocity over this time interval? </t>
   </si>
   <si>
-    <t>7a</t>
-  </si>
-  <si>
-    <t>7b</t>
-  </si>
-  <si>
     <t>0.14 h</t>
   </si>
   <si>
@@ -271,12 +207,6 @@
   </si>
   <si>
     <t>3.68 m/s</t>
-  </si>
-  <si>
-    <t>9a</t>
-  </si>
-  <si>
-    <t>9b</t>
   </si>
   <si>
     <t>6.1 m/s^2</t>
@@ -328,12 +258,6 @@
     <t>44g's</t>
   </si>
   <si>
-    <t>31a</t>
-  </si>
-  <si>
-    <t>31b</t>
-  </si>
-  <si>
     <t>61.8 m</t>
   </si>
   <si>
@@ -377,6 +301,165 @@
   </si>
   <si>
     <t xml:space="preserve"> A stone is dropped from the top of a cliff. It is seen to hit the ground below after 3.55 s. How high is the cliff?</t>
+  </si>
+  <si>
+    <t>1.1c</t>
+  </si>
+  <si>
+    <t>1.1d</t>
+  </si>
+  <si>
+    <t>1.1e</t>
+  </si>
+  <si>
+    <t>1.1f</t>
+  </si>
+  <si>
+    <t>1.1g</t>
+  </si>
+  <si>
+    <t>1.3a</t>
+  </si>
+  <si>
+    <t>1.3b</t>
+  </si>
+  <si>
+    <t>1.3c</t>
+  </si>
+  <si>
+    <t>1.3d</t>
+  </si>
+  <si>
+    <t>1.3e</t>
+  </si>
+  <si>
+    <t>1.15a</t>
+  </si>
+  <si>
+    <t>1.15b</t>
+  </si>
+  <si>
+    <t>1.25a</t>
+  </si>
+  <si>
+    <t>1.25b</t>
+  </si>
+  <si>
+    <t>1.25c</t>
+  </si>
+  <si>
+    <t>1.25d</t>
+  </si>
+  <si>
+    <t>1.27e</t>
+  </si>
+  <si>
+    <t>2.7a</t>
+  </si>
+  <si>
+    <t>2.7b</t>
+  </si>
+  <si>
+    <t>2.9a</t>
+  </si>
+  <si>
+    <t>2.9b</t>
+  </si>
+  <si>
+    <t>2.31a</t>
+  </si>
+  <si>
+    <t>2.31b</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>Electromagnetism</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Fluids</t>
+  </si>
+  <si>
+    <t>WO</t>
+  </si>
+  <si>
+    <t>Waves and Oscillations</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Thermodynamics</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Optics</t>
+  </si>
+  <si>
+    <t>College Physics 2e</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Circuits and Electronics</t>
+  </si>
+  <si>
+    <t>Nuclear Physics</t>
+  </si>
+  <si>
+    <t>On a hot day, the temperature of an 80,000 L swimming pool increases by 1.50 C. What is the net heat transfer during this heating? Ignore any complications, such as loss of water by evaporation.</t>
+  </si>
+  <si>
+    <t>To sterilize a 50.0-g glass baby bottle, we must raise its temperature from 22.0 C to 95.0 C. How much heat transfer is required?</t>
+  </si>
+  <si>
+    <t>Rubbing your hands together warms them by converting work into thermal energy. If a woman rubs her hands back and forth for a total of 20 rubs, at a distance of 7.50 cm per rub, and with an average frictional force of 40.0 N, what is the temperature increase? The mass of tissues warmed is only 0.100 kg, mostly in the palms and fingers.</t>
+  </si>
+  <si>
+    <t>Suppose identical amounts of heat transfer into different masses of copper and water, causing identical changes in temperature. What is the ratio of the mass of copper to water?</t>
+  </si>
+  <si>
+    <t>Following vigorous exercise, the body temperature of an 80.0 kg person is 40.0 C. At what rate in watts must the person transfer thermal energy to reduce the the body temperature to 37.0 C in 30.0 min, assuming the body continues to produce energy at the rate of 150 W?</t>
+  </si>
+  <si>
+    <t>How much heat transfer (in kilocalories) is required to thaw a 0.450 kg package of frozen vegetables originally at 0 C if their heat of fusion is the same as that of water?</t>
+  </si>
+  <si>
+    <t>5.02 x 10^8 J</t>
+  </si>
+  <si>
+    <t>1.5 x 10^11 m</t>
+  </si>
+  <si>
+    <t>1.5 x 10^8 km</t>
+  </si>
+  <si>
+    <t>3.07 x 10^3 J</t>
+  </si>
+  <si>
+    <t>0.171 C</t>
+  </si>
+  <si>
+    <t>617 W</t>
+  </si>
+  <si>
+    <t>35.9 kcal</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>AI Mark</t>
   </si>
 </sst>
 </file>
@@ -426,12 +509,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,11 +828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD803C-6F28-457F-8503-E252019E2A3C}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,10 +841,12 @@
     <col min="3" max="3" width="3.88671875" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="9" max="9" width="4.21875" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -785,10 +869,16 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -799,10 +889,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -810,17 +900,17 @@
       <c r="G2">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
       <c r="K2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -828,13 +918,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -842,14 +932,14 @@
       <c r="G3">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -857,13 +947,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -871,14 +961,14 @@
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -886,13 +976,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -901,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -909,13 +999,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -923,17 +1013,17 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
       <c r="K6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -941,13 +1031,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -955,14 +1045,14 @@
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -970,13 +1060,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -984,8 +1074,14 @@
       <c r="G8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -993,22 +1089,28 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>86900</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1016,22 +1118,28 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G10">
         <v>9100</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1039,28 +1147,28 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G11">
         <v>0.88</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>6</v>
       </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1068,22 +1176,28 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
       </c>
       <c r="G12">
         <v>476</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1091,22 +1205,28 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G13">
         <v>3.6199999999999999E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1114,22 +1234,28 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1137,22 +1263,28 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1160,19 +1292,19 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1183,19 +1315,19 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1206,19 +1338,19 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1229,19 +1361,19 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1252,19 +1384,19 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1275,16 +1407,16 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>500</v>
@@ -1298,19 +1430,19 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1321,19 +1453,19 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1344,19 +1476,19 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1367,19 +1499,19 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1390,19 +1522,19 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1413,19 +1545,19 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1436,16 +1568,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1459,19 +1591,19 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>2.11</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1482,19 +1614,19 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>2.13</v>
       </c>
       <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" t="s">
         <v>67</v>
       </c>
-      <c r="E30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" t="s">
-        <v>90</v>
-      </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1505,19 +1637,19 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>2.15</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
         <v>58</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1528,19 +1660,19 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>2.17</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>92</v>
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1551,19 +1683,19 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>2.25</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>104</v>
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1574,19 +1706,19 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>2.27</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>105</v>
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
       </c>
       <c r="G34" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1597,19 +1729,19 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>2.29</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>106</v>
+        <v>39</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1620,19 +1752,19 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>108</v>
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1643,19 +1775,19 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>107</v>
+        <v>39</v>
+      </c>
+      <c r="F37" t="s">
+        <v>82</v>
       </c>
       <c r="G37" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1666,19 +1798,19 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>2.33</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="F38" t="s">
+        <v>84</v>
       </c>
       <c r="G38" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1689,19 +1821,19 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>35</v>
+        <v>2.35</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>110</v>
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1712,19 +1844,19 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>2.37</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>111</v>
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
+        <v>86</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1735,19 +1867,157 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>2.39</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>112</v>
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
       </c>
       <c r="G41" t="s">
-        <v>98</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42">
+        <v>14.1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43">
+        <v>14.3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44">
+        <v>14.5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45">
+        <v>14.7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46">
+        <v>14.9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47">
+        <v>14.11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Question-Answer-Bank.xlsx
+++ b/Question-Answer-Bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chvya\Documents\AI Physics Writing\GPT-4 Answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CAE983-B6EA-4561-A595-3335A7665320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D4BFA4-25D4-4533-8DB0-0F7A42F267F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="14496" xr2:uid="{50AF6F86-C276-4885-9784-CFE30EF2E953}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{50AF6F86-C276-4885-9784-CFE30EF2E953}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="143">
   <si>
     <t>Question</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Estimate how many hours it would take to run (at 10 km/h) across the U.S. from New York to California.</t>
-  </si>
-  <si>
-    <t>Response</t>
   </si>
   <si>
     <t>Type</t>
@@ -460,6 +457,15 @@
   </si>
   <si>
     <t>AI Mark</t>
+  </si>
+  <si>
+    <t>davincii-002</t>
+  </si>
+  <si>
+    <t>GPT-4</t>
+  </si>
+  <si>
+    <t>gpt-3.5-turbo</t>
   </si>
 </sst>
 </file>
@@ -828,11 +834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD803C-6F28-457F-8503-E252019E2A3C}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,11 +848,16 @@
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="9" max="9" width="4.21875" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="4.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -860,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -869,16 +880,28 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -892,7 +915,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -900,17 +923,17 @@
       <c r="G2">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -924,7 +947,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -932,14 +955,14 @@
       <c r="G3">
         <v>4</v>
       </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -947,13 +970,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -961,14 +984,14 @@
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
         <v>43</v>
       </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -976,13 +999,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -991,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -999,13 +1022,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1013,17 +1036,17 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1031,13 +1054,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -1045,14 +1068,14 @@
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1060,13 +1083,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1074,14 +1097,14 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q8" t="s">
         <v>123</v>
       </c>
-      <c r="M8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1089,13 +1112,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -1103,14 +1126,14 @@
       <c r="G9">
         <v>86900</v>
       </c>
-      <c r="L9" t="s">
+      <c r="P9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" t="s">
         <v>111</v>
       </c>
-      <c r="M9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1118,13 +1141,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1132,14 +1155,14 @@
       <c r="G10">
         <v>9100</v>
       </c>
-      <c r="L10" t="s">
+      <c r="P10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q10" t="s">
         <v>113</v>
       </c>
-      <c r="M10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1147,13 +1170,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1161,14 +1184,14 @@
       <c r="G11">
         <v>0.88</v>
       </c>
-      <c r="L11" t="s">
+      <c r="P11" t="s">
         <v>6</v>
       </c>
-      <c r="M11" t="s">
+      <c r="Q11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1176,13 +1199,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -1190,14 +1213,14 @@
       <c r="G12">
         <v>476</v>
       </c>
-      <c r="L12" t="s">
+      <c r="P12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" t="s">
         <v>115</v>
       </c>
-      <c r="M12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1205,13 +1228,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -1219,14 +1242,14 @@
       <c r="G13">
         <v>3.6199999999999999E-5</v>
       </c>
-      <c r="L13" t="s">
+      <c r="P13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" t="s">
         <v>117</v>
       </c>
-      <c r="M13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1240,7 +1263,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -1248,14 +1271,14 @@
       <c r="G14" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="L14" t="s">
-        <v>119</v>
-      </c>
-      <c r="M14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1263,28 +1286,28 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="P15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" t="s">
         <v>120</v>
       </c>
-      <c r="M15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1292,19 +1315,19 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1315,13 +1338,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
         <v>28</v>
@@ -1338,13 +1361,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
         <v>29</v>
@@ -1361,13 +1384,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
         <v>30</v>
@@ -1384,13 +1407,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
@@ -1407,13 +1430,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
@@ -1433,16 +1456,16 @@
         <v>2.1</v>
       </c>
       <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>49</v>
-      </c>
-      <c r="G22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1456,16 +1479,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1479,16 +1502,16 @@
         <v>2.5</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1499,19 +1522,19 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1522,19 +1545,19 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1545,19 +1568,19 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1568,16 +1591,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1594,16 +1617,16 @@
         <v>2.11</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1617,16 +1640,16 @@
         <v>2.13</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1640,16 +1663,16 @@
         <v>2.15</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1663,16 +1686,16 @@
         <v>2.17</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1686,16 +1709,16 @@
         <v>2.25</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1709,16 +1732,16 @@
         <v>2.27</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1732,16 +1755,16 @@
         <v>2.29</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1752,19 +1775,19 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1775,19 +1798,19 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1801,16 +1824,16 @@
         <v>2.33</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1824,16 +1847,16 @@
         <v>2.35</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1847,16 +1870,16 @@
         <v>2.37</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1870,16 +1893,16 @@
         <v>2.39</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1887,22 +1910,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42">
         <v>14.1</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1910,22 +1933,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43">
         <v>14.3</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1933,22 +1956,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44">
         <v>14.5</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1956,19 +1979,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45">
         <v>14.7</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G45">
         <v>10.8</v>
@@ -1979,22 +2002,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46">
         <v>14.9</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2002,22 +2025,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47">
         <v>14.11</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Question-Answer-Bank.xlsx
+++ b/Question-Answer-Bank.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chvya\Documents\AI Physics Writing\GPT-4 Answers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chvya\Documents\AI Physics Writing\micro-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D4BFA4-25D4-4533-8DB0-0F7A42F267F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8A1486-9163-402A-B411-5C80A052C4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{50AF6F86-C276-4885-9784-CFE30EF2E953}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="541">
   <si>
     <t>Question</t>
   </si>
@@ -466,6 +467,1200 @@
   </si>
   <si>
     <t>gpt-3.5-turbo</t>
+  </si>
+  <si>
+    <t>14.15</t>
+  </si>
+  <si>
+    <t>14.19</t>
+  </si>
+  <si>
+    <t>14.32</t>
+  </si>
+  <si>
+    <t>14.34</t>
+  </si>
+  <si>
+    <t>14.45</t>
+  </si>
+  <si>
+    <t>14.49</t>
+  </si>
+  <si>
+    <t>14.51</t>
+  </si>
+  <si>
+    <t>14.57</t>
+  </si>
+  <si>
+    <t>14.71</t>
+  </si>
+  <si>
+    <t>14.59</t>
+  </si>
+  <si>
+    <t>13.5 W</t>
+  </si>
+  <si>
+    <t>33.0 g</t>
+  </si>
+  <si>
+    <t>84.0 W</t>
+  </si>
+  <si>
+    <t>2.59 kg</t>
+  </si>
+  <si>
+    <t>10 m/s</t>
+  </si>
+  <si>
+    <t>1.48 kg</t>
+  </si>
+  <si>
+    <t>2 x 10^4 MW</t>
+  </si>
+  <si>
+    <t>-266 kW</t>
+  </si>
+  <si>
+    <t>-36.0 W</t>
+  </si>
+  <si>
+    <t>On a trip, you notice that a 3.50 kg bag of ice lasts an average of one day in your cooler. What is the average power in watts entering the ice if it starts at 0 C and completely melts to 0 C water in exactly one day.</t>
+  </si>
+  <si>
+    <t>How many grams of coffee must evaporate from 350 g of coffee in a 100 g glass cup to cool the coffee from 95.0 C to 45.0 C? You may assume the coffee has the same thermal properties as water and that the average heat of vaporization is 2340 kJ/kg (560 cal/g). (You may neglect the change in mass of the coffee as it cools, which will give you an answer that is slightly larger than correct.)</t>
+  </si>
+  <si>
+    <t>Calculate the rate of heat conduction out of the human body, assuming that the core internal temperature is 37.0 C, the skin temperature is 34.0 C, the thickness of the tissues between averages 1.00 cm, and the surface area is 1.40 m^2.</t>
+  </si>
+  <si>
+    <t>A man consumes 3000 kcal of food in one day, converting most of it to maintain body temperature. If he loses half this energy by evaporating water (through breathing and sweating), how many kilograms of water evaporate?</t>
+  </si>
+  <si>
+    <t>The Kilauea volcano in Hawaii is the world’s most active, disgorging about 5 x 10^5 m^3 of 1200 C lava per day. What is the rate of heat transfer out of Earth by convection if this lava has a density of 2700 kg/m^3 and eventually cools to 30 C? Assume that the specific heat of lava is the same as that of granite.</t>
+  </si>
+  <si>
+    <t>Radiation makes it impossible to stand close to a hot lava flow. Calculate the rate of heat transfer by radiation from 1.00 m^2 of 1200 C of fresh lava into 30.0 C surroundings, assuming lava’s emissivity is 1.00.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the net rate of heat transfer by radiation from a skier standing in the shade, given the following. She is co mpletely clothed in white (head to foot, including a ski mask), the clothes have an emissivity of 0.200 and a surface temperature of 10.0 C, the surroundings are at -15.0 C, and her surface area is 1.60 m^2. </t>
+  </si>
+  <si>
+    <t>On a hot dry day, evaporation from a lake has just enough heat transfer to balance the 1.00 kW/m^2 of incoming heat from the Sun. What mass of water evaporates in 1.00 h from each square meter?</t>
+  </si>
+  <si>
+    <t>At what wind speed does -10 C air cause the same chill factor as still air at -29 C?</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>20.11</t>
+  </si>
+  <si>
+    <t>20.17</t>
+  </si>
+  <si>
+    <t>20.20</t>
+  </si>
+  <si>
+    <t>20.24</t>
+  </si>
+  <si>
+    <t>20.26</t>
+  </si>
+  <si>
+    <t>20.28</t>
+  </si>
+  <si>
+    <t>20.32</t>
+  </si>
+  <si>
+    <t>20.34</t>
+  </si>
+  <si>
+    <t>20.36</t>
+  </si>
+  <si>
+    <t>0.278 mA</t>
+  </si>
+  <si>
+    <t>0.250 A</t>
+  </si>
+  <si>
+    <t>1.50 ms</t>
+  </si>
+  <si>
+    <t>96.3 s</t>
+  </si>
+  <si>
+    <t>9.42 x 10^13 electrons</t>
+  </si>
+  <si>
+    <t>20.18</t>
+  </si>
+  <si>
+    <t>0.833 A</t>
+  </si>
+  <si>
+    <t>7.33 x 10^-2 Ohms</t>
+  </si>
+  <si>
+    <t>0.104 Ohms</t>
+  </si>
+  <si>
+    <t>2.8 x 10^-2 m</t>
+  </si>
+  <si>
+    <t>1.10 x 10^-3 A</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>0.06 %</t>
+  </si>
+  <si>
+    <t>-17 C</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>What is the maximum magnitude of the force on an aluminum rod with a 0.100 µC charge that you pass between the poles of a 1.50 T permanent magnet at a speed of 5.00 m/s?</t>
+  </si>
+  <si>
+    <t>What is the current in milliamperes produced by the solar cells of a pocket calculator through which 4.00 C of charge passes in 4.00 h?</t>
+  </si>
+  <si>
+    <t>What is the current when a typical static charge of 0.250 µC moves from your finger to a metal doorknob in 1.00 µs?</t>
+  </si>
+  <si>
+    <t>A large lightning bolt had a 20,000 A current and moved 30.0 C of charge. What was its duration?</t>
+  </si>
+  <si>
+    <t>The batteries of a submerged non-nuclear submarine supply 1000 A at full speed ahead. How long does it take to move Avogadro’s number (6.02 x 10^23) of electrons at this rate?</t>
+  </si>
+  <si>
+    <t>SPEAR, a storage ring about 72.0 m in diameter at the Stanford Linear Accelerator (closed in 2009), has a 20.0-A circulating beam of electrons that are moving at nearly the speed of light. How many electrons are in the beam?</t>
+  </si>
+  <si>
+    <t>What current flows through the bulb of a 3.00 V flashlight when its hot resistance is 3.60 Ohm</t>
+  </si>
+  <si>
+    <t>What is the effective resistance of a car’s starter motor when 150 A flows through it as the car battery applies 11.0 V to the motor?</t>
+  </si>
+  <si>
+    <t>What is the resistance of a 20.0 m long piece of 12-gauge copper wire having a 2.053 mm diameter?</t>
+  </si>
+  <si>
+    <t>If the 0.010 mm diameter tungsten filament in a light bulb is to have a resistance of 0.200 Ohms at 20.0 C, how long should it be?</t>
+  </si>
+  <si>
+    <t>What current flows through a 2.54 cm diameter rod of pure silicon that is 20.0 cm long, when 1.00 x 10^3 V is applied to it? (Such a rod may be used to make nuclear-particle detectors, for example.)</t>
+  </si>
+  <si>
+    <t>An electronic device designed to operate at any temperature in the range from -10.0 C to 55.0 C contains pure carbon resistors. By what factor does their resistance increase over this range?</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>11.8</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>11.11</t>
+  </si>
+  <si>
+    <t>11.13</t>
+  </si>
+  <si>
+    <t>11.14</t>
+  </si>
+  <si>
+    <t>11.20</t>
+  </si>
+  <si>
+    <t>11.22</t>
+  </si>
+  <si>
+    <t>11.25</t>
+  </si>
+  <si>
+    <t>11.26</t>
+  </si>
+  <si>
+    <t>11.31</t>
+  </si>
+  <si>
+    <t>11.35</t>
+  </si>
+  <si>
+    <t>11.36</t>
+  </si>
+  <si>
+    <t>11.38</t>
+  </si>
+  <si>
+    <t>815 kg/m^3</t>
+  </si>
+  <si>
+    <t>91.7%</t>
+  </si>
+  <si>
+    <t>22.4 cm^2</t>
+  </si>
+  <si>
+    <t>4.08 m</t>
+  </si>
+  <si>
+    <t>5.76 x 10^3 N</t>
+  </si>
+  <si>
+    <t>2.55 x 10^7 Pa</t>
+  </si>
+  <si>
+    <t>24.0 N</t>
+  </si>
+  <si>
+    <t>1.09 x 10^3 N/m^2</t>
+  </si>
+  <si>
+    <t>0.760 m</t>
+  </si>
+  <si>
+    <t>2.36 x 10^3 N</t>
+  </si>
+  <si>
+    <t>3.59 x 10^6 Pa</t>
+  </si>
+  <si>
+    <t>15.8 g/cm^3</t>
+  </si>
+  <si>
+    <t>7.9 x 10^2 kg/m^3</t>
+  </si>
+  <si>
+    <t>2.70 g/cm^3</t>
+  </si>
+  <si>
+    <t>1.610 cm^3</t>
+  </si>
+  <si>
+    <t>Gold is sold by the troy ounce (31.103 g). What is the volume of 1 troy ounce of pure gold?</t>
+  </si>
+  <si>
+    <t>A straightforward method of finding the density of an object is to measure its mass and then measure its volume by submerging it in a graduated cylinder. What is the density of a 240 g rock that displaces 89.0 cm^3 of water?</t>
+  </si>
+  <si>
+    <t>A 2.50 kg steel gasoline can holds 20.0 L of gasoline when full. What is the average density of the full gas can, taking into account the volume occupied by steel as well as by gasoline?</t>
+  </si>
+  <si>
+    <t>What is the density of 18.0-karat gold that is a mixture of 18 parts gold, 5 parts silver, and 1 part copper? (These values are parts by mass, not volume.) Assume that this is a simple mixture having an average density equal to the weighted densities of its constituents.</t>
+  </si>
+  <si>
+    <t>As a woman walks, her entire weight is momentarily placed on one heel of her highheeled shoes. Calculate the pressure exerted on the floor by the heel if it has an area of 1.50 cm^2 and the woman’s mass is 55.0 kg. Express the pressure in Pa.</t>
+  </si>
+  <si>
+    <t>Nail tips exert tremendous pressures when they are hit by hammers because they exert a large force over a small area. What force must be exerted on a nail with a circular tip of 1.00 mm diameter to create a pressure of 3.00 x 10^9 N/m^2</t>
+  </si>
+  <si>
+    <t>What depth of mercury creates a pressure of 1.00 atm?</t>
+  </si>
+  <si>
+    <t>What pressure is exerted on the bottom of a 0.500 m wide by 0.900 m long gas tank that can hold 50.0 kg of gasoline by the weight of the gasoline in it when it is full?</t>
+  </si>
+  <si>
+    <t>The left side of the heart creates a pressure of 120 mm Hg by exerting a force directly on the blood over an effective area of 15.0 cm^2. What force does it exert to accomplish this?</t>
+  </si>
+  <si>
+    <t>What force must be exerted on the pedal cylinder of a hydraulic lift to support the weight of a 2000 kg car (a large car) resting on the wheel cylinder? The pedal cylinder has a 2.00 cm diameter and the wheel has a 24.0 cm diameter.</t>
+  </si>
+  <si>
+    <t>A crass host pours the remnants of several bottles of wine into a jug after a party. He then inserts a cork with a 2.00 cm diameter into the bottle, placing it in direct contact with the wine. He is amazed when he pounds the cork into place and the bottom of the jug (with a 14.0 cm diameter) breaks away. Calculate the extra force exerted against the bottom if he pounded the cork with a 120 N force.</t>
+  </si>
+  <si>
+    <t>How tall must a water-filled manometer be to measure blood pressures as high as 300 mm Hg?</t>
+  </si>
+  <si>
+    <t>Assuming bicycle tires are perfectly flexible and support the weight of bicycle and rider by pressure alone, calculate the total area of the tires in contact with the ground. The bicycle plus rider has a mass of 80.0 kg, and the gauge pressure in the tires is 3.50 x 10^5 Pa.</t>
+  </si>
+  <si>
+    <t>What fraction of ice is submerged when it floats in freshwater, given the density of water at 0°C is very close to 1000 kg/m^3?</t>
+  </si>
+  <si>
+    <t>8. Find the density of a fluid in which a hydrometer having a density of 0.750 g/mL floats with 92.0% of its volume submerged.</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>19.21</t>
+  </si>
+  <si>
+    <t>19.24</t>
+  </si>
+  <si>
+    <t>19.46</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.52</t>
+  </si>
+  <si>
+    <t>667 pF</t>
+  </si>
+  <si>
+    <t>20.0 kV</t>
+  </si>
+  <si>
+    <t>21.6 mC</t>
+  </si>
+  <si>
+    <t>144 V</t>
+  </si>
+  <si>
+    <t>15 kV</t>
+  </si>
+  <si>
+    <t>44.0 mV</t>
+  </si>
+  <si>
+    <t>1.00 x 10^5 K</t>
+  </si>
+  <si>
+    <t>42.8</t>
+  </si>
+  <si>
+    <t>Find the ratio of speeds of an electron and a negative hydrogen ion (one having an extra electron) accelerated through the same voltage, assuming non-relativistic final speeds. Take the mass of the hydrogen ion to be 1.67 x 10^-27 kg</t>
+  </si>
+  <si>
+    <t>Singly charged gas ions are accelerated from rest through a voltage of 13.0 V. At what temperature will the average kinetic energy of gas molecules be the same as that given these ions?</t>
+  </si>
+  <si>
+    <t>A battery-operated car utilizes a 12.0 V system. Find the charge the batteries must be able to move in order to accelerate the 750 kg car from rest to 25.0 m/s, make it climb a 2.00 x 10^2 m high hill, and then cause it to travel at a constant 25.0 m/s by exerting a 5.00 x 10^2 N force for an hour.</t>
+  </si>
+  <si>
+    <t>Find the maximum potential difference between two parallel conducting plates separated by 0.500 cm of air, given the maximum sustainable electric field strength in air to be 3.0 x 10^6 V/m.</t>
+  </si>
+  <si>
+    <t>A 0.500 cm diameter plastic sphere, used in a static electricity demonstration, has a uniformly distributed 40.0 pC charge on its surface. What is the potential near its surface?</t>
+  </si>
+  <si>
+    <t>What charge is stored in a 180 µF capacitor when 120 V is applied to it?</t>
+  </si>
+  <si>
+    <t>What voltage must be applied to an 8.00 nF capacitor to store 0.160 mC of charge?</t>
+  </si>
+  <si>
+    <t>What is the capacitance of a large Van de Graaff generator’s terminal, given that it stores 8.00 mC of charge at a voltage of 12.0 MV?</t>
+  </si>
+  <si>
+    <t>22.12</t>
+  </si>
+  <si>
+    <t>22.20</t>
+  </si>
+  <si>
+    <t>22.22</t>
+  </si>
+  <si>
+    <t>22.26</t>
+  </si>
+  <si>
+    <t>22.30</t>
+  </si>
+  <si>
+    <t>22.37</t>
+  </si>
+  <si>
+    <t>22.43</t>
+  </si>
+  <si>
+    <t>22.47</t>
+  </si>
+  <si>
+    <t>22.61</t>
+  </si>
+  <si>
+    <t>22.75</t>
+  </si>
+  <si>
+    <t>A cosmic ray electron moves at 7.50 x 10^6 m/s perpendicular to the Earth’s magnetic field at an altitude where field strength is 1.00 x 10^-5 T. What is the radius of the circular path the electron follows?</t>
+  </si>
+  <si>
+    <t>A mass spectrometer is being used to separate common oxygen-16 from the much rarer oxygen-18, taken from a sample of old glacial ice. (The relative abundance of these oxygen isotopes is related to climatic temperature at the time the ice was deposited.) The ratio of the masses of these two ions is 16 to 18, the mass of oxygen-16 is 2.66 x 10^-26 kg and they are singly charged and travel at 5.00 x 10^6 m/s in a 1.20 T magnetic field. What is the separation between their paths when they hit a target after traversing a semicircle?</t>
+  </si>
+  <si>
+    <t>A large water main is 2.50 m in diameter and the average water velocity is 6.00 m/s. Find the Hall voltage produced if the pipe runs perpendicular to the Earth’s 5.00 x 10^-5 T field.</t>
+  </si>
+  <si>
+    <t>Calculate the Hall voltage induced on a patient’s heart while being scanned by an MRI unit. Approximate the conducting path on the heart wall by a wire 7.50 cm long that moves at 10.0 cm/s perpendicular to a 1.50 T magnetic field.</t>
+  </si>
+  <si>
+    <t>A patient with a pacemaker is mistakenly being scanned for an MRI image. A 10.0 cm long section of pacemaker wire moves at a speed of 10.0 cm/s perpendicular to the MRI unit’s magnetic field and a 20.0 mV Hall voltage is induced. What is the magnetic field strength?</t>
+  </si>
+  <si>
+    <t>A wire carrying a 30.0 A current passes between the poles of a strong magnet that is perpendicular to its field and experiences a 2.16 N force on the 4.00 cm of wire in the field. What is the average field strength?</t>
+  </si>
+  <si>
+    <t>Find the current through a loop needed to create a maximum torque of 9.00 Nm. The loop has 50 square turns that are 15.0 cm on a side and is in a uniform 0.800 T magnetic field.</t>
+  </si>
+  <si>
+    <t>A proton has a magnetic field due to its spin on its axis. The field is similar to that created by a circular current loop 0.650 x 10^-15 m in radius with a current of 1.05 x 10^4 A. Find the maximum torque on a proton in a 2.50 T field. (This is a significant torque on a small particle.)</t>
+  </si>
+  <si>
+    <t>To see why an MRI utilizes iron to increase the magnetic field created by a coil, calculate the current needed in a 400-loop-per-meter circular coil 0.660 m in radius to create a 1.20 T field (typical of an MRI instrument) at its center with no iron present. The magnetic field of a proton is approximately like that of a circular current loop 0.650 x 10^-15 m in radius carrying 1.05 x 10^4 A. What is the field at the center of such a loop?</t>
+  </si>
+  <si>
+    <t>Calculate the size of the magnetic field 20 m below a high voltage power line. The line carries 450 MW at a voltage of 300,000 V.</t>
+  </si>
+  <si>
+    <t>Assuming a constant temperature coefficient of resistivity, what is the maximum percent decrease in the resistance of a copper wire starting at 20.0 C?</t>
+  </si>
+  <si>
+    <t>A copper wire has a resistance of 0.500 Ohm at 20.0 C, and an iron wire has a resistance of 0.525 Ohm at the same temperature. At what temperature are their resistances equal?</t>
+  </si>
+  <si>
+    <t>0.72 m</t>
+  </si>
+  <si>
+    <t>1.5 Hz</t>
+  </si>
+  <si>
+    <t>350 N/m</t>
+  </si>
+  <si>
+    <t>0.75 s</t>
+  </si>
+  <si>
+    <t>14.31</t>
+  </si>
+  <si>
+    <t>14.37</t>
+  </si>
+  <si>
+    <t>14.41</t>
+  </si>
+  <si>
+    <t>14.53</t>
+  </si>
+  <si>
+    <t>14.55</t>
+  </si>
+  <si>
+    <t>14.65</t>
+  </si>
+  <si>
+    <t>3.1 m/s</t>
+  </si>
+  <si>
+    <t>1.08 s</t>
+  </si>
+  <si>
+    <t>2.9 s</t>
+  </si>
+  <si>
+    <t>0.41 g</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>2.2 s</t>
+  </si>
+  <si>
+    <t>309.8 m/s</t>
+  </si>
+  <si>
+    <t>10.2 m/s</t>
+  </si>
+  <si>
+    <t>14.67</t>
+  </si>
+  <si>
+    <t>14.87</t>
+  </si>
+  <si>
+    <t>14.89</t>
+  </si>
+  <si>
+    <t>1.25 Hz</t>
+  </si>
+  <si>
+    <t>84.5 min</t>
+  </si>
+  <si>
+    <t>0.11 m</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>If a particle undergoes SHM with amplitude 0.18 m, what is the total distance it travels in one period?</t>
+  </si>
+  <si>
+    <t>The springs of a 1500 kg car compress 5.0 mm when its 68 kg driver gets into the driver’s seat. If the car goes over a bump, what will be the frequency of oscillations? Ignore damping.</t>
+  </si>
+  <si>
+    <t>Estimate the stiffness of the spring in a child’s pogo stick if the child has a mass of 35 kg and bounces once every 2.0 seconds.</t>
+  </si>
+  <si>
+    <t>An object of unknown mass m is hung from a vertical spring of unknown spring constant k, and the object is observed to be at rest when the spring has extended by 14 cm. The object is then given a slight push and executes SHM. Determine the period T of this oscillation.</t>
+  </si>
+  <si>
+    <t>It takes a force of 95.0 N to compress the spring of a toy popgun 0.175 m to “load” a 0.160 kg ball. With what speed will the ball leave the gun if fired horizontally?</t>
+  </si>
+  <si>
+    <t>Agent Arlene devised the following method of measuring the muzzle velocity of a rifle. She fires a bullet into a 4.648 kg wooden block resting on a smooth surface, and attached to a spring of spring constant k = 142.7 N/m. The bullet, whose mass is 7.870 g, remains embedded in the wooden block. She measures the maximum distance that the block compresses the spring to be 9.460 cm. What is the speed of the bullet?</t>
+  </si>
+  <si>
+    <t>A pendulum has a period of 1.35 s on Earth. What is its period on Mars, where the acceleration of gravity is about 0.37 that on Earth?</t>
+  </si>
+  <si>
+    <t>A simple pendulum oscillates with an amplitude of 10.0°. What fraction of the time does it spend between +5.0° and -5.0°? Assume SHM.</t>
+  </si>
+  <si>
+    <t>The balance wheel of a watch is a thin ring of radius 0.95 cm and oscillates with a frequency of 3.10 Hz. If a torque of 1.1 x 10^-5 Nm causes the wheel to rotate 45°, calculate the mass of the balance wheel.</t>
+  </si>
+  <si>
+    <t>A meter stick is hung at its center from a thin wire. It is twisted and oscillates with a period of 5.0 s. The meter stick is sawed off to a length of 70.0 cm. This piece is again balanced at its center and set in oscillation. With what period does it oscillate?</t>
+  </si>
+  <si>
+    <t>A plywood disk of radius 20.0 cm and mass 2.20 kg has a small hole drilled through it, 2.00 cm from its edge. The disk is hung from the wall by means of a metal pin through the hole, and is used as a pendulum. What is the period of this pendulum for small oscillations?</t>
+  </si>
+  <si>
+    <t>An 1150 kg automobile has springs with k = 16,000 N/m. One of the tires is not properly balanced; it has a little extra mass on one side compared to the other, causing the car to shake at certain speeds. If the tire radius is 42 cm, at what speed will the wheel shake most?</t>
+  </si>
+  <si>
+    <t>The amplitude of a driven harmonic oscillator reaches a value of 23.7 F_0 / k at a resonant frequency of 382 Hz. What is the Q value of this system?</t>
+  </si>
+  <si>
+    <t>An energy-absorbing car bumper has a spring constant of 430 kN/m. Find the maximum compression of the bumper if the car, with mass 1300 kg, collides with a wall at a speed of 2.0 m/s (approximately 5 mi/h).</t>
+  </si>
+  <si>
+    <t>Imagine that a 10 cm diameter circular hole was drilled all the way through the center of the Earth. At one end of the hole, you drop an apple into the hole. Show that, if you assume that the Earth has a constant density, the subsequent motion of the apple is simple harmonic. How long will the apple take to return? Assume that we can ignore all frictional effects.</t>
+  </si>
+  <si>
+    <t>A mass m is gently placed on the end of a freely hanging spring. The mass then falls 32.0 cm before it stops and begins to rise. What is the frequency of the oscillation?</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Special Relativity</t>
+  </si>
+  <si>
+    <t>72.5 m</t>
+  </si>
+  <si>
+    <t>36.1</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t>36.9</t>
+  </si>
+  <si>
+    <t>36.15</t>
+  </si>
+  <si>
+    <t>36.19</t>
+  </si>
+  <si>
+    <t>36.37</t>
+  </si>
+  <si>
+    <t>36.41</t>
+  </si>
+  <si>
+    <t>36.47</t>
+  </si>
+  <si>
+    <t>36.51</t>
+  </si>
+  <si>
+    <t>36.53</t>
+  </si>
+  <si>
+    <t>36.59</t>
+  </si>
+  <si>
+    <t>36.61</t>
+  </si>
+  <si>
+    <t>36.65</t>
+  </si>
+  <si>
+    <t>36.69</t>
+  </si>
+  <si>
+    <t>36.71</t>
+  </si>
+  <si>
+    <t>36.79</t>
+  </si>
+  <si>
+    <t>36.85</t>
+  </si>
+  <si>
+    <t>36.89</t>
+  </si>
+  <si>
+    <t>36.91</t>
+  </si>
+  <si>
+    <t>0.987c</t>
+  </si>
+  <si>
+    <t>3 x 10^7 kg</t>
+  </si>
+  <si>
+    <t>28.32 MeV</t>
+  </si>
+  <si>
+    <t>1.022 MeV</t>
+  </si>
+  <si>
+    <t>8.0 x 10^-8 s</t>
+  </si>
+  <si>
+    <t>75 µs</t>
+  </si>
+  <si>
+    <t>230 MHz</t>
+  </si>
+  <si>
+    <t>240 MeV</t>
+  </si>
+  <si>
+    <t>237.04832 u</t>
+  </si>
+  <si>
+    <t>0.32c</t>
+  </si>
+  <si>
+    <t>0.470c</t>
+  </si>
+  <si>
+    <t>0.866c</t>
+  </si>
+  <si>
+    <t>900 kg</t>
+  </si>
+  <si>
+    <t>0.95c</t>
+  </si>
+  <si>
+    <t>0.65c</t>
+  </si>
+  <si>
+    <t>0.894c</t>
+  </si>
+  <si>
+    <t>6.97 x 10^-8 %</t>
+  </si>
+  <si>
+    <t>27 yr</t>
+  </si>
+  <si>
+    <t>2.42 x 10^8 m/s</t>
+  </si>
+  <si>
+    <t>Physics for scientists and engineers</t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>2.8 x 10^-7 m</t>
+  </si>
+  <si>
+    <t>5.3 x 10^-11 m</t>
+  </si>
+  <si>
+    <t>4500 m/s</t>
+  </si>
+  <si>
+    <t>1.0 x 10^-14</t>
+  </si>
+  <si>
+    <t>1.3 x 10^-54 kg</t>
+  </si>
+  <si>
+    <t>38.11</t>
+  </si>
+  <si>
+    <t>38.7</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>38.21</t>
+  </si>
+  <si>
+    <t>38.37</t>
+  </si>
+  <si>
+    <t>38.39</t>
+  </si>
+  <si>
+    <t>17 eV</t>
+  </si>
+  <si>
+    <t>0.020 nm</t>
+  </si>
+  <si>
+    <t>1.8 x 10^6 m/s</t>
+  </si>
+  <si>
+    <t>38.47</t>
+  </si>
+  <si>
+    <t>38.49</t>
+  </si>
+  <si>
+    <t>38.55</t>
+  </si>
+  <si>
+    <t>27% decrease</t>
+  </si>
+  <si>
+    <t>25 nm</t>
+  </si>
+  <si>
+    <t>14 MeV</t>
+  </si>
+  <si>
+    <t>39.15</t>
+  </si>
+  <si>
+    <t>39.41</t>
+  </si>
+  <si>
+    <t>39.43</t>
+  </si>
+  <si>
+    <t>39.47</t>
+  </si>
+  <si>
+    <t>39.57</t>
+  </si>
+  <si>
+    <t>39.59</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>0.194 nm</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>2.9 x 10^-4 eV</t>
+  </si>
+  <si>
+    <t>634 nm</t>
+  </si>
+  <si>
+    <t>3.7 x 10^4 K</t>
+  </si>
+  <si>
+    <t>41.1</t>
+  </si>
+  <si>
+    <t>41.3</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>41.9</t>
+  </si>
+  <si>
+    <t>41.13</t>
+  </si>
+  <si>
+    <t>41.15</t>
+  </si>
+  <si>
+    <t>41.21</t>
+  </si>
+  <si>
+    <t>41.23</t>
+  </si>
+  <si>
+    <t>41.29</t>
+  </si>
+  <si>
+    <t>41.33</t>
+  </si>
+  <si>
+    <t>41.37</t>
+  </si>
+  <si>
+    <t>41.41</t>
+  </si>
+  <si>
+    <t>41.43</t>
+  </si>
+  <si>
+    <t>41.45</t>
+  </si>
+  <si>
+    <t>41.49</t>
+  </si>
+  <si>
+    <t>41.51</t>
+  </si>
+  <si>
+    <t>41.53</t>
+  </si>
+  <si>
+    <t>41.55</t>
+  </si>
+  <si>
+    <t>41.57</t>
+  </si>
+  <si>
+    <t>41.63</t>
+  </si>
+  <si>
+    <t>41.65</t>
+  </si>
+  <si>
+    <t>41.73</t>
+  </si>
+  <si>
+    <t>1 MeV</t>
+  </si>
+  <si>
+    <t>41 yr</t>
+  </si>
+  <si>
+    <t>2.3 x 10^4 yr</t>
+  </si>
+  <si>
+    <t>35.4 d</t>
+  </si>
+  <si>
+    <t>2.98 x 10^-2 g</t>
+  </si>
+  <si>
+    <t>4.3 min</t>
+  </si>
+  <si>
+    <t>2.30 x 10^-11 g</t>
+  </si>
+  <si>
+    <t>0.76 g</t>
+  </si>
+  <si>
+    <t>6.9 x 10^19 nuclei</t>
+  </si>
+  <si>
+    <t>0.015625</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>5.31 MeV</t>
+  </si>
+  <si>
+    <t>0.862 MeV</t>
+  </si>
+  <si>
+    <t>0.079 MeV</t>
+  </si>
+  <si>
+    <t>2.6 x 10^-12 m</t>
+  </si>
+  <si>
+    <t>0.782 MeV</t>
+  </si>
+  <si>
+    <t>7.94 MeV</t>
+  </si>
+  <si>
+    <t>550 MeV</t>
+  </si>
+  <si>
+    <t>30 MeV</t>
+  </si>
+  <si>
+    <t>3727 MeV/c^2</t>
+  </si>
+  <si>
+    <t>0.85%</t>
+  </si>
+  <si>
+    <t>0.149 u</t>
+  </si>
+  <si>
+    <t>33.29</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>33.31</t>
+  </si>
+  <si>
+    <t>33.33</t>
+  </si>
+  <si>
+    <t>33.35</t>
+  </si>
+  <si>
+    <t>33.39</t>
+  </si>
+  <si>
+    <t>33.41</t>
+  </si>
+  <si>
+    <t>33.51</t>
+  </si>
+  <si>
+    <t>33.59</t>
+  </si>
+  <si>
+    <t>33.87</t>
+  </si>
+  <si>
+    <t>33.93</t>
+  </si>
+  <si>
+    <t>33.95</t>
+  </si>
+  <si>
+    <t>33.99</t>
+  </si>
+  <si>
+    <t>33.101</t>
+  </si>
+  <si>
+    <t>33.103</t>
+  </si>
+  <si>
+    <t>33.107</t>
+  </si>
+  <si>
+    <t>33.73</t>
+  </si>
+  <si>
+    <t>33.69</t>
+  </si>
+  <si>
+    <t>33.65</t>
+  </si>
+  <si>
+    <t>-6.2 cm</t>
+  </si>
+  <si>
+    <t>-19x</t>
+  </si>
+  <si>
+    <t>+3.4 D</t>
+  </si>
+  <si>
+    <t>47 m</t>
+  </si>
+  <si>
+    <t>20.0 cm</t>
+  </si>
+  <si>
+    <t>1.6 cm</t>
+  </si>
+  <si>
+    <t>33.63</t>
+  </si>
+  <si>
+    <t>6.6 cm</t>
+  </si>
+  <si>
+    <t>+2.5 D</t>
+  </si>
+  <si>
+    <t>41 mm</t>
+  </si>
+  <si>
+    <t>34 cm</t>
+  </si>
+  <si>
+    <t>8.6 cm</t>
+  </si>
+  <si>
+    <t>33.47</t>
+  </si>
+  <si>
+    <t>f/2.8</t>
+  </si>
+  <si>
+    <t>-24.8 cm</t>
+  </si>
+  <si>
+    <t>4 cm, toward</t>
+  </si>
+  <si>
+    <t>-26x</t>
+  </si>
+  <si>
+    <t>16x</t>
+  </si>
+  <si>
+    <t>-9x</t>
+  </si>
+  <si>
+    <t>=19.0 cm</t>
+  </si>
+  <si>
+    <t>1.0x</t>
+  </si>
+  <si>
+    <t>7.50 x 10^-7 N</t>
+  </si>
+  <si>
+    <t>4.27 m</t>
+  </si>
+  <si>
+    <t>0.173 m</t>
+  </si>
+  <si>
+    <t>7.50 x 10^-4 V</t>
+  </si>
+  <si>
+    <t>11.3 mV</t>
+  </si>
+  <si>
+    <t>2.00 T</t>
+  </si>
+  <si>
+    <t>1.80 T</t>
+  </si>
+  <si>
+    <t>10.0 A</t>
+  </si>
+  <si>
+    <t>3.48 x 10^-26 Nm</t>
+  </si>
+  <si>
+    <t>1.01 x 10^13 T</t>
+  </si>
+  <si>
+    <t>60.2 cm</t>
+  </si>
+  <si>
+    <t>Both surfaces of a double convex lens have radii of 31.4 cm. If the focal length is 28.9 cm, what is the index of refraction of the lens material?</t>
+  </si>
+  <si>
+    <t>A planoconvex lens is to have a focal length of 18.7 cm. If made from fused quartz, what must be the radius of curvature of the convex surface?</t>
+  </si>
+  <si>
+    <t>A prescription for a corrective lens calls for +3.50 diopters. The lensmaker grinds the lens from a “blank” with n = 1.56 and convex front surface of radius of curvature of 30.0 cm. What should be the radius of curvature of the other surface?</t>
+  </si>
+  <si>
+    <t>A television camera lens has a 17 cm focal length and a lens diameter of 6.0 cm. What is its f-number?</t>
+  </si>
+  <si>
+    <t>A nature photographer wishes to photograph a 38 m tall tree from a distance of 65 m. What focal-length lens should be used if the image is to fill the 24 mm height of the sensor?</t>
+  </si>
+  <si>
+    <t>A person struggles to read by holding a book at arm’s length, a distance of 55 cm away. What power of reading glasses should be prescribed for her, assuming they will be placed 2.0 cm from the eye and she wants to read at the “normal” near point of 25 cm?</t>
+  </si>
+  <si>
+    <t>One lens of a nearsighted person’s eyeglasses has a focal length of -23.0 cm and the lens is 1.8 cm from the eye. If the person switches to contact lenses placed directly on the eye, what should be the focal length of the corresponding contact lens?</t>
+  </si>
+  <si>
+    <t>What is the focal length of a magnifying glass of 3.8 x magnification for a relaxed normal eye?</t>
+  </si>
+  <si>
+    <t>A converging lens of focal length f = 12 cm is being used by a writer as a magnifying glass to read some fine print on his book contract. Initially, the writer holds the lens above the fine print so that its image is at infinity. To get a better look, he then moves the lens so that the image is at his 25 cm near point. How far, and in what direction (toward or away from the fine print) did the writer move the lens? Assume the writer’s eye is adjusted to remain always very near the magnifying glass.</t>
+  </si>
+  <si>
+    <t>A Galilean telescope adjusted for a relaxed eye is 33.8 cm long. If the objective lens has a focal length of 36.0 cm, what is the magnification?</t>
+  </si>
+  <si>
+    <t>An astronomical telescope longer than about 50 cm is not easy to hold by hand. Based on this fact, estimate the maximum angular magnification achievable for a telescope designed to be handheld. Assume its eyepiece lens, if used as a magnifying glass, provides a magnification of 5x for a relaxed eye with near point N = 25 cm.</t>
+  </si>
+  <si>
+    <t>A small object is 25.0 cm from a diverging lens. A converging lens with a focal length of 12.0 cm is 30.0 cm to the right of the diverging lens. The two-lens system forms a real inverted image 17.0 cm to the right of the converging lens. What is the focal length of the diverging lens?</t>
+  </si>
+  <si>
+    <t>A 680x microscope uses a 0.40 cm focal-length objective lens. If the barrel length is 17.5 cm, what is the focal length of the eyepiece? Assume a normal eye and that the final image is at infinity.</t>
+  </si>
+  <si>
+    <t>When an object is placed 60.0 cm from a certain converging lens, it forms a real image. When the object is moved to 40.0 cm from the lens, the image moves 10.0 cm farther from the lens. Find the focal length of this lens.</t>
+  </si>
+  <si>
+    <t>A movie star catches a reporter shooting pictures of her at home. She claims the reporter was trespassing. To prove her point, she gives as evidence the film she seized. Her 1.75 m height is 8.25 mm high on the film, and the focal length of the camera lens was 220 mm. How far away from the subject was the reporter standing?</t>
+  </si>
+  <si>
+    <t>A 50-year-old man uses +2.5-D lenses to read a newspaper 25 cm away. Ten years later, he must hold the paper 32 cm away to see clearly with the same lenses. What power lenses does he need now in order to hold the paper 25 cm away? (Distances are measured from the lens.)</t>
+  </si>
+  <si>
+    <t>The objective lens and the eyepiece of a telescope are spaced 85 cm apart. If the eyepiece is +23 D, what is the total magnification of the telescope?</t>
+  </si>
+  <si>
+    <t>What is the magnifying power of a +4.0 D lens used as a magnifier? Assume a relaxed normal eye.</t>
+  </si>
+  <si>
+    <t>An astronomical telescope has an objective with focal length 75 cm and a +35 D eyepiece. What is the total magnification?</t>
+  </si>
+  <si>
+    <t>In a science-fiction novel, an intelligent ocean-dwelling creature’s eye functions underwater with a near point of 25 cm. This creature would like to create an underwater magnifier out of a thin plastic container filled with air. What shape should the air-filled plastic container have (i.e., determine radii of curvature of its surfaces) in order for it to be used by the creature as a 3.0x magnifier? Assume the eye is focused at its near point.</t>
+  </si>
+  <si>
+    <t>A spaceship passes you at a speed of 0.850c. You measure its length to be 38.2 m. How long would it be when at rest?</t>
+  </si>
+  <si>
+    <t>Suppose you decide to travel to a star 65 light-years away at a speed that tells you the distance is only 25 lightyears. How many years would it take you to make the trip?</t>
+  </si>
+  <si>
+    <t>What is the speed of a pion if its average lifetime is measured to be 4.40 x 10^-8 s? At rest, its average lifetime is 2.60 x 10^-8 s?</t>
+  </si>
+  <si>
+    <t>Escape velocity from the Earth is 11.2 km/s. What would be the percent decrease in length of a 65.2 m long spacecraft traveling at that speed as seen from Earth?</t>
   </si>
 </sst>
 </file>
@@ -515,11 +1710,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,20 +2039,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD803C-6F28-457F-8503-E252019E2A3C}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
     <col min="9" max="9" width="4.88671875" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" style="1" customWidth="1"/>
@@ -864,7 +2070,7 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -876,7 +2082,7 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -908,7 +2114,7 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
@@ -920,7 +2126,7 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>3</v>
       </c>
       <c r="O2" t="s">
@@ -940,7 +2146,7 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
@@ -952,7 +2158,7 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>4</v>
       </c>
       <c r="P3" t="s">
@@ -969,7 +2175,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D4" t="s">
@@ -981,7 +2187,7 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>3</v>
       </c>
       <c r="P4" t="s">
@@ -998,7 +2204,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D5" t="s">
@@ -1010,7 +2216,7 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1021,7 +2227,7 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D6" t="s">
@@ -1033,7 +2239,7 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>2</v>
       </c>
       <c r="O6" t="s">
@@ -1053,7 +2259,7 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D7" t="s">
@@ -1065,7 +2271,7 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>4</v>
       </c>
       <c r="P7" t="s">
@@ -1082,7 +2288,7 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D8" t="s">
@@ -1094,7 +2300,7 @@
       <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>2</v>
       </c>
       <c r="P8" t="s">
@@ -1111,7 +2317,7 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D9" t="s">
@@ -1123,7 +2329,7 @@
       <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>86900</v>
       </c>
       <c r="P9" t="s">
@@ -1140,7 +2346,7 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D10" t="s">
@@ -1152,7 +2358,7 @@
       <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>9100</v>
       </c>
       <c r="P10" t="s">
@@ -1169,7 +2375,7 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D11" t="s">
@@ -1181,7 +2387,7 @@
       <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>0.88</v>
       </c>
       <c r="P11" t="s">
@@ -1198,7 +2404,7 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D12" t="s">
@@ -1210,7 +2416,7 @@
       <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>476</v>
       </c>
       <c r="P12" t="s">
@@ -1227,7 +2433,7 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D13" t="s">
@@ -1239,7 +2445,7 @@
       <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>3.6199999999999999E-5</v>
       </c>
       <c r="P13" t="s">
@@ -1256,7 +2462,7 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>1.5</v>
       </c>
       <c r="D14" t="s">
@@ -1268,7 +2474,7 @@
       <c r="F14" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="P14" t="s">
@@ -1285,7 +2491,7 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D15" t="s">
@@ -1297,7 +2503,7 @@
       <c r="F15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>132</v>
       </c>
       <c r="P15" t="s">
@@ -1314,7 +2520,7 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D16" t="s">
@@ -1326,8 +2532,14 @@
       <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>133</v>
+      </c>
+      <c r="P16" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1337,7 +2549,7 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D17" t="s">
@@ -1349,7 +2561,7 @@
       <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1360,7 +2572,7 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D18" t="s">
@@ -1372,7 +2584,7 @@
       <c r="F18" t="s">
         <v>29</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1383,7 +2595,7 @@
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D19" t="s">
@@ -1395,7 +2607,7 @@
       <c r="F19" t="s">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1406,7 +2618,7 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D20" t="s">
@@ -1418,7 +2630,7 @@
       <c r="F20" t="s">
         <v>31</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1429,7 +2641,7 @@
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D21" t="s">
@@ -1441,7 +2653,7 @@
       <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>500</v>
       </c>
     </row>
@@ -1452,7 +2664,7 @@
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>2.1</v>
       </c>
       <c r="D22" t="s">
@@ -1464,7 +2676,7 @@
       <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1475,7 +2687,7 @@
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="D23" t="s">
@@ -1487,7 +2699,7 @@
       <c r="F23" t="s">
         <v>51</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1498,7 +2710,7 @@
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>2.5</v>
       </c>
       <c r="D24" t="s">
@@ -1510,7 +2722,7 @@
       <c r="F24" t="s">
         <v>60</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1521,7 +2733,7 @@
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D25" t="s">
@@ -1533,7 +2745,7 @@
       <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1544,7 +2756,7 @@
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D26" t="s">
@@ -1556,7 +2768,7 @@
       <c r="F26" t="s">
         <v>62</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1567,7 +2779,7 @@
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D27" t="s">
@@ -1579,7 +2791,7 @@
       <c r="F27" t="s">
         <v>63</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1590,7 +2802,7 @@
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D28" t="s">
@@ -1602,7 +2814,7 @@
       <c r="F28" t="s">
         <v>64</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1613,7 +2825,7 @@
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>2.11</v>
       </c>
       <c r="D29" t="s">
@@ -1625,7 +2837,7 @@
       <c r="F29" t="s">
         <v>65</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1636,7 +2848,7 @@
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>2.13</v>
       </c>
       <c r="D30" t="s">
@@ -1648,7 +2860,7 @@
       <c r="F30" t="s">
         <v>66</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1659,7 +2871,7 @@
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>2.15</v>
       </c>
       <c r="D31" t="s">
@@ -1671,7 +2883,7 @@
       <c r="F31" t="s">
         <v>67</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1682,7 +2894,7 @@
       <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>2.17</v>
       </c>
       <c r="D32" t="s">
@@ -1694,7 +2906,7 @@
       <c r="F32" t="s">
         <v>68</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1705,7 +2917,7 @@
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>2.25</v>
       </c>
       <c r="D33" t="s">
@@ -1717,7 +2929,7 @@
       <c r="F33" t="s">
         <v>78</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1728,7 +2940,7 @@
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>2.27</v>
       </c>
       <c r="D34" t="s">
@@ -1740,7 +2952,7 @@
       <c r="F34" t="s">
         <v>79</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1751,7 +2963,7 @@
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>2.29</v>
       </c>
       <c r="D35" t="s">
@@ -1763,7 +2975,7 @@
       <c r="F35" t="s">
         <v>80</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1774,7 +2986,7 @@
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D36" t="s">
@@ -1786,7 +2998,7 @@
       <c r="F36" t="s">
         <v>82</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1797,7 +3009,7 @@
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D37" t="s">
@@ -1809,7 +3021,7 @@
       <c r="F37" t="s">
         <v>81</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1820,7 +3032,7 @@
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>2.33</v>
       </c>
       <c r="D38" t="s">
@@ -1832,7 +3044,7 @@
       <c r="F38" t="s">
         <v>83</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1843,7 +3055,7 @@
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>2.35</v>
       </c>
       <c r="D39" t="s">
@@ -1855,7 +3067,7 @@
       <c r="F39" t="s">
         <v>84</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1866,7 +3078,7 @@
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>2.37</v>
       </c>
       <c r="D40" t="s">
@@ -1878,7 +3090,7 @@
       <c r="F40" t="s">
         <v>85</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1889,7 +3101,7 @@
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>2.39</v>
       </c>
       <c r="D41" t="s">
@@ -1901,7 +3113,7 @@
       <c r="F41" t="s">
         <v>86</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1910,22 +3122,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42">
-        <v>14.1</v>
+        <v>387</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
         <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" t="s">
-        <v>131</v>
+        <v>329</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1933,22 +3145,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43">
-        <v>14.3</v>
+        <v>387</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
         <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" t="s">
-        <v>134</v>
+        <v>330</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1956,22 +3168,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44">
-        <v>14.5</v>
+        <v>387</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" t="s">
-        <v>135</v>
+        <v>331</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1979,22 +3191,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45">
-        <v>14.7</v>
+        <v>387</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45">
-        <v>10.8</v>
+        <v>332</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2002,22 +3214,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46">
-        <v>14.9</v>
+        <v>387</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" t="s">
-        <v>136</v>
+        <v>333</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2025,22 +3237,3330 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>387</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
+        <v>334</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>387</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>335</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>336</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>387</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s">
+        <v>337</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>387</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
+        <v>338</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>387</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>339</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>387</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>340</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>387</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" t="s">
+        <v>341</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>387</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" t="s">
+        <v>342</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>387</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" t="s">
+        <v>343</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>387</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" t="s">
+        <v>344</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>387</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D58" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" t="s">
+        <v>517</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>387</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" t="s">
+        <v>518</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>387</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>519</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>387</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" t="s">
+        <v>520</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>387</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" t="s">
+        <v>521</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>387</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" t="s">
+        <v>522</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" t="s">
+        <v>523</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>387</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D65" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
+        <v>524</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>387</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
+        <v>525</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>387</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" t="s">
+        <v>535</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>387</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
+        <v>526</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>387</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" t="s">
+        <v>527</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>387</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>387</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D71" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" t="s">
+        <v>528</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>387</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D72" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" t="s">
+        <v>530</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>387</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" t="s">
+        <v>531</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>387</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D74" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" t="s">
+        <v>534</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>387</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" t="s">
+        <v>532</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>387</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" t="s">
+        <v>533</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>387</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D77" t="s">
+        <v>119</v>
+      </c>
+      <c r="E77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" t="s">
+        <v>536</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>387</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D78" t="s">
+        <v>345</v>
+      </c>
+      <c r="E78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" t="s">
+        <v>537</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>387</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D79" t="s">
+        <v>345</v>
+      </c>
+      <c r="E79" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" t="s">
+        <v>539</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D80" t="s">
+        <v>345</v>
+      </c>
+      <c r="E80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" t="s">
+        <v>538</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>387</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D81" t="s">
+        <v>345</v>
+      </c>
+      <c r="E81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" t="s">
+        <v>540</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>387</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D82" t="s">
+        <v>345</v>
+      </c>
+      <c r="E82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>387</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D83" t="s">
+        <v>345</v>
+      </c>
+      <c r="E83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>387</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D84" t="s">
+        <v>345</v>
+      </c>
+      <c r="E84" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>387</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D85" t="s">
+        <v>345</v>
+      </c>
+      <c r="E85" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>387</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D86" t="s">
+        <v>345</v>
+      </c>
+      <c r="E86" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>387</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D87" t="s">
+        <v>345</v>
+      </c>
+      <c r="E87" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>387</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D88" t="s">
+        <v>345</v>
+      </c>
+      <c r="E88" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>387</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D89" t="s">
+        <v>345</v>
+      </c>
+      <c r="E89" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>387</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D90" t="s">
+        <v>345</v>
+      </c>
+      <c r="E90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>387</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>387</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D92" t="s">
+        <v>345</v>
+      </c>
+      <c r="E92" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>387</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D93" t="s">
+        <v>345</v>
+      </c>
+      <c r="E93" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>387</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D94" t="s">
+        <v>345</v>
+      </c>
+      <c r="E94" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>387</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D95" t="s">
+        <v>345</v>
+      </c>
+      <c r="E95" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>387</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D96" t="s">
+        <v>345</v>
+      </c>
+      <c r="E96" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>387</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D97" t="s">
+        <v>345</v>
+      </c>
+      <c r="E97" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>387</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>387</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>387</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
+        <v>38</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>387</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" t="s">
+        <v>38</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>387</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>387</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>38</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>387</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>387</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" t="s">
+        <v>38</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>387</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>387</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" t="s">
+        <v>38</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>387</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" t="s">
+        <v>38</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>387</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>38</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>387</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>38</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>387</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>387</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>387</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" t="s">
+        <v>38</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>387</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D115" t="s">
+        <v>118</v>
+      </c>
+      <c r="E115" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>387</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D116" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116" t="s">
+        <v>38</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>387</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E117" t="s">
+        <v>38</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>387</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D118" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118" t="s">
+        <v>38</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>121</v>
       </c>
-      <c r="C47">
+      <c r="B119" t="s">
+        <v>387</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D119" t="s">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>38</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>387</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D120" t="s">
+        <v>118</v>
+      </c>
+      <c r="E120" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>387</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D121" t="s">
+        <v>118</v>
+      </c>
+      <c r="E121" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>387</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D122" t="s">
+        <v>118</v>
+      </c>
+      <c r="E122" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>387</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D123" t="s">
+        <v>118</v>
+      </c>
+      <c r="E123" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>387</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D124" t="s">
+        <v>118</v>
+      </c>
+      <c r="E124" t="s">
+        <v>38</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>387</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D125" t="s">
+        <v>118</v>
+      </c>
+      <c r="E125" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>387</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D126" t="s">
+        <v>118</v>
+      </c>
+      <c r="E126" t="s">
+        <v>38</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>387</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D127" t="s">
+        <v>118</v>
+      </c>
+      <c r="E127" t="s">
+        <v>38</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>387</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D128" t="s">
+        <v>118</v>
+      </c>
+      <c r="E128" t="s">
+        <v>38</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>387</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D129" t="s">
+        <v>118</v>
+      </c>
+      <c r="E129" t="s">
+        <v>38</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>387</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D130" t="s">
+        <v>118</v>
+      </c>
+      <c r="E130" t="s">
+        <v>38</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D131" t="s">
+        <v>118</v>
+      </c>
+      <c r="E131" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>387</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D132" t="s">
+        <v>118</v>
+      </c>
+      <c r="E132" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>387</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D133" t="s">
+        <v>118</v>
+      </c>
+      <c r="E133" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>387</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D134" t="s">
+        <v>118</v>
+      </c>
+      <c r="E134" t="s">
+        <v>38</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>387</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D135" t="s">
+        <v>118</v>
+      </c>
+      <c r="E135" t="s">
+        <v>38</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>387</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D136" t="s">
+        <v>118</v>
+      </c>
+      <c r="E136" t="s">
+        <v>38</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>121</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D137" t="s">
+        <v>112</v>
+      </c>
+      <c r="E137" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" t="s">
+        <v>240</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D138" t="s">
+        <v>112</v>
+      </c>
+      <c r="E138" t="s">
+        <v>38</v>
+      </c>
+      <c r="F138" t="s">
+        <v>241</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>121</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D139" t="s">
+        <v>112</v>
+      </c>
+      <c r="E139" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>121</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D140" t="s">
+        <v>112</v>
+      </c>
+      <c r="E140" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" t="s">
+        <v>243</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>121</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D141" t="s">
+        <v>112</v>
+      </c>
+      <c r="E141" t="s">
+        <v>38</v>
+      </c>
+      <c r="F141" t="s">
+        <v>244</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>121</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D142" t="s">
+        <v>112</v>
+      </c>
+      <c r="E142" t="s">
+        <v>38</v>
+      </c>
+      <c r="F142" t="s">
+        <v>245</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D143" t="s">
+        <v>112</v>
+      </c>
+      <c r="E143" t="s">
+        <v>38</v>
+      </c>
+      <c r="F143" t="s">
+        <v>246</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>121</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D144" t="s">
+        <v>112</v>
+      </c>
+      <c r="E144" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" t="s">
+        <v>247</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>121</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D145" t="s">
+        <v>112</v>
+      </c>
+      <c r="E145" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" t="s">
+        <v>248</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>121</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D146" t="s">
+        <v>112</v>
+      </c>
+      <c r="E146" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" t="s">
+        <v>249</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>121</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D147" t="s">
+        <v>112</v>
+      </c>
+      <c r="E147" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" t="s">
+        <v>250</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>121</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D148" t="s">
+        <v>112</v>
+      </c>
+      <c r="E148" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" t="s">
+        <v>251</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>121</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D149" t="s">
+        <v>112</v>
+      </c>
+      <c r="E149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" t="s">
+        <v>252</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>121</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D150" t="s">
+        <v>112</v>
+      </c>
+      <c r="E150" t="s">
+        <v>38</v>
+      </c>
+      <c r="F150" t="s">
+        <v>253</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>121</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D151" t="s">
+        <v>112</v>
+      </c>
+      <c r="E151" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" t="s">
+        <v>254</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>121</v>
+      </c>
+      <c r="C152" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>116</v>
+      </c>
+      <c r="E152" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" t="s">
+        <v>125</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>121</v>
+      </c>
+      <c r="C153" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="D153" t="s">
+        <v>116</v>
+      </c>
+      <c r="E153" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" t="s">
+        <v>126</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>121</v>
+      </c>
+      <c r="C154" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D154" t="s">
+        <v>116</v>
+      </c>
+      <c r="E154" t="s">
+        <v>38</v>
+      </c>
+      <c r="F154" t="s">
+        <v>127</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>121</v>
+      </c>
+      <c r="C155" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>116</v>
+      </c>
+      <c r="E155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" t="s">
+        <v>128</v>
+      </c>
+      <c r="G155" s="5">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>121</v>
+      </c>
+      <c r="C156" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="D156" t="s">
+        <v>116</v>
+      </c>
+      <c r="E156" t="s">
+        <v>38</v>
+      </c>
+      <c r="F156" t="s">
+        <v>129</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C157" s="3">
         <v>14.11</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D157" t="s">
         <v>116</v>
       </c>
-      <c r="E47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E157" t="s">
+        <v>38</v>
+      </c>
+      <c r="F157" t="s">
         <v>130</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G157" s="5" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>121</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D158" t="s">
+        <v>116</v>
+      </c>
+      <c r="E158" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" t="s">
+        <v>162</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>121</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D159" t="s">
+        <v>116</v>
+      </c>
+      <c r="E159" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159" t="s">
+        <v>163</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>121</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D160" t="s">
+        <v>116</v>
+      </c>
+      <c r="E160" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160" t="s">
+        <v>164</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D161" t="s">
+        <v>116</v>
+      </c>
+      <c r="E161" t="s">
+        <v>38</v>
+      </c>
+      <c r="F161" t="s">
+        <v>165</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>121</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D162" t="s">
+        <v>116</v>
+      </c>
+      <c r="E162" t="s">
+        <v>38</v>
+      </c>
+      <c r="F162" t="s">
+        <v>170</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>121</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D163" t="s">
+        <v>116</v>
+      </c>
+      <c r="E163" t="s">
+        <v>38</v>
+      </c>
+      <c r="F163" t="s">
+        <v>169</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>121</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D164" t="s">
+        <v>116</v>
+      </c>
+      <c r="E164" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" t="s">
+        <v>166</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>121</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D165" t="s">
+        <v>116</v>
+      </c>
+      <c r="E165" t="s">
+        <v>38</v>
+      </c>
+      <c r="F165" t="s">
+        <v>167</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>168</v>
+      </c>
+      <c r="B166" t="s">
+        <v>121</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D166" t="s">
+        <v>116</v>
+      </c>
+      <c r="E166" t="s">
+        <v>38</v>
+      </c>
+      <c r="F166" t="s">
+        <v>168</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>121</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D167" t="s">
+        <v>110</v>
+      </c>
+      <c r="E167" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167" t="s">
+        <v>274</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>170</v>
+      </c>
+      <c r="B168" t="s">
+        <v>121</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D168" t="s">
+        <v>110</v>
+      </c>
+      <c r="E168" t="s">
+        <v>38</v>
+      </c>
+      <c r="F168" t="s">
+        <v>275</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>121</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D169" t="s">
+        <v>110</v>
+      </c>
+      <c r="E169" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169" t="s">
+        <v>276</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>172</v>
+      </c>
+      <c r="B170" t="s">
+        <v>121</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D170" t="s">
+        <v>110</v>
+      </c>
+      <c r="E170" t="s">
+        <v>38</v>
+      </c>
+      <c r="F170" t="s">
+        <v>277</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>121</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D171" t="s">
+        <v>110</v>
+      </c>
+      <c r="E171" t="s">
+        <v>38</v>
+      </c>
+      <c r="F171" t="s">
+        <v>278</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>174</v>
+      </c>
+      <c r="B172" t="s">
+        <v>121</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D172" t="s">
+        <v>110</v>
+      </c>
+      <c r="E172" t="s">
+        <v>38</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>121</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D173" t="s">
+        <v>110</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" t="s">
+        <v>280</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>121</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D174" t="s">
+        <v>110</v>
+      </c>
+      <c r="E174" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" t="s">
+        <v>281</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>121</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D175" t="s">
+        <v>122</v>
+      </c>
+      <c r="E175" t="s">
+        <v>38</v>
+      </c>
+      <c r="F175" t="s">
+        <v>199</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>178</v>
+      </c>
+      <c r="B176" t="s">
+        <v>121</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D176" t="s">
+        <v>122</v>
+      </c>
+      <c r="E176" t="s">
+        <v>38</v>
+      </c>
+      <c r="F176" t="s">
+        <v>200</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>121</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D177" t="s">
+        <v>122</v>
+      </c>
+      <c r="E177" t="s">
+        <v>38</v>
+      </c>
+      <c r="F177" t="s">
+        <v>201</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>180</v>
+      </c>
+      <c r="B178" t="s">
+        <v>121</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D178" t="s">
+        <v>122</v>
+      </c>
+      <c r="E178" t="s">
+        <v>38</v>
+      </c>
+      <c r="F178" t="s">
+        <v>202</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>121</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D179" t="s">
+        <v>122</v>
+      </c>
+      <c r="E179" t="s">
+        <v>38</v>
+      </c>
+      <c r="F179" t="s">
+        <v>203</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>182</v>
+      </c>
+      <c r="B180" t="s">
+        <v>121</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D180" t="s">
+        <v>122</v>
+      </c>
+      <c r="E180" t="s">
+        <v>38</v>
+      </c>
+      <c r="F180" t="s">
+        <v>204</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>121</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D181" t="s">
+        <v>122</v>
+      </c>
+      <c r="E181" t="s">
+        <v>38</v>
+      </c>
+      <c r="F181" t="s">
+        <v>205</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>184</v>
+      </c>
+      <c r="B182" t="s">
+        <v>121</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D182" t="s">
+        <v>122</v>
+      </c>
+      <c r="E182" t="s">
+        <v>38</v>
+      </c>
+      <c r="F182" t="s">
+        <v>206</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>121</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D183" t="s">
+        <v>122</v>
+      </c>
+      <c r="E183" t="s">
+        <v>38</v>
+      </c>
+      <c r="F183" t="s">
+        <v>207</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>186</v>
+      </c>
+      <c r="B184" t="s">
+        <v>121</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D184" t="s">
+        <v>122</v>
+      </c>
+      <c r="E184" t="s">
+        <v>38</v>
+      </c>
+      <c r="F184" t="s">
+        <v>208</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>121</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D185" t="s">
+        <v>122</v>
+      </c>
+      <c r="E185" t="s">
+        <v>38</v>
+      </c>
+      <c r="F185" t="s">
+        <v>209</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>188</v>
+      </c>
+      <c r="B186" t="s">
+        <v>121</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D186" t="s">
+        <v>122</v>
+      </c>
+      <c r="E186" t="s">
+        <v>38</v>
+      </c>
+      <c r="F186" t="s">
+        <v>302</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>121</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D187" t="s">
+        <v>122</v>
+      </c>
+      <c r="E187" t="s">
+        <v>38</v>
+      </c>
+      <c r="F187" t="s">
+        <v>303</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>190</v>
+      </c>
+      <c r="B188" t="s">
+        <v>121</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D188" t="s">
+        <v>110</v>
+      </c>
+      <c r="E188" t="s">
+        <v>38</v>
+      </c>
+      <c r="F188" t="s">
+        <v>198</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>121</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D189" t="s">
+        <v>110</v>
+      </c>
+      <c r="E189" t="s">
+        <v>38</v>
+      </c>
+      <c r="F189" t="s">
+        <v>292</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>192</v>
+      </c>
+      <c r="B190" t="s">
+        <v>121</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D190" t="s">
+        <v>110</v>
+      </c>
+      <c r="E190" t="s">
+        <v>38</v>
+      </c>
+      <c r="F190" t="s">
+        <v>293</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>121</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D191" t="s">
+        <v>110</v>
+      </c>
+      <c r="E191" t="s">
+        <v>38</v>
+      </c>
+      <c r="F191" t="s">
+        <v>294</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>194</v>
+      </c>
+      <c r="B192" t="s">
+        <v>121</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D192" t="s">
+        <v>110</v>
+      </c>
+      <c r="E192" t="s">
+        <v>38</v>
+      </c>
+      <c r="F192" t="s">
+        <v>295</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>121</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D193" t="s">
+        <v>110</v>
+      </c>
+      <c r="E193" t="s">
+        <v>38</v>
+      </c>
+      <c r="F193" t="s">
+        <v>296</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>196</v>
+      </c>
+      <c r="B194" t="s">
+        <v>121</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D194" t="s">
+        <v>110</v>
+      </c>
+      <c r="E194" t="s">
+        <v>38</v>
+      </c>
+      <c r="F194" t="s">
+        <v>297</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>121</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D195" t="s">
+        <v>110</v>
+      </c>
+      <c r="E195" t="s">
+        <v>38</v>
+      </c>
+      <c r="F195" t="s">
+        <v>298</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>198</v>
+      </c>
+      <c r="B196" t="s">
+        <v>121</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D196" t="s">
+        <v>110</v>
+      </c>
+      <c r="E196" t="s">
+        <v>38</v>
+      </c>
+      <c r="F196" t="s">
+        <v>299</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>199</v>
+      </c>
+      <c r="B197" t="s">
+        <v>121</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D197" t="s">
+        <v>110</v>
+      </c>
+      <c r="E197" t="s">
+        <v>38</v>
+      </c>
+      <c r="F197" t="s">
+        <v>300</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>200</v>
+      </c>
+      <c r="B198" t="s">
+        <v>121</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D198" t="s">
+        <v>110</v>
+      </c>
+      <c r="E198" t="s">
+        <v>38</v>
+      </c>
+      <c r="F198" t="s">
+        <v>301</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -2048,4 +6568,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4103AA-AFDE-4955-AA5D-ED0054F9782B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:F121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>